--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/15/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/CDF/15/seed5/result_data_RandomForest.xlsx
@@ -488,7 +488,7 @@
         <v>-9.76</v>
       </c>
       <c r="D3" t="n">
-        <v>-5.903699999999999</v>
+        <v>-6.247699999999996</v>
       </c>
       <c r="E3" t="n">
         <v>13.95</v>
@@ -542,7 +542,7 @@
         <v>-8.59</v>
       </c>
       <c r="E6" t="n">
-        <v>12.5016</v>
+        <v>12.4768</v>
       </c>
     </row>
     <row r="7">
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>12.3829</v>
+        <v>11.98889999999999</v>
       </c>
     </row>
     <row r="8">
@@ -573,10 +573,10 @@
         <v>-11.02</v>
       </c>
       <c r="D8" t="n">
-        <v>-8.783599999999991</v>
+        <v>-8.945299999999987</v>
       </c>
       <c r="E8" t="n">
-        <v>12.62</v>
+        <v>12.5697</v>
       </c>
     </row>
     <row r="9">
@@ -638,10 +638,10 @@
         <v>5.38</v>
       </c>
       <c r="C12" t="n">
-        <v>-14.62490000000001</v>
+        <v>-14.68050000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>-8.310400000000007</v>
+        <v>-8.219600000000002</v>
       </c>
       <c r="E12" t="n">
         <v>13.01</v>
@@ -675,7 +675,7 @@
         <v>-11.89</v>
       </c>
       <c r="D14" t="n">
-        <v>-8.767700000000003</v>
+        <v>-8.794699999999999</v>
       </c>
       <c r="E14" t="n">
         <v>12.97</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>12.856</v>
+        <v>12.71799999999999</v>
       </c>
     </row>
     <row r="20">
@@ -797,7 +797,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.91959999999999</v>
+        <v>12.57219999999999</v>
       </c>
     </row>
     <row r="22">
@@ -811,7 +811,7 @@
         <v>-10.65</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.894099999999994</v>
+        <v>-8.148399999999992</v>
       </c>
       <c r="E22" t="n">
         <v>12.2</v>
@@ -848,7 +848,7 @@
         <v>-9.24</v>
       </c>
       <c r="E24" t="n">
-        <v>12.87169999999998</v>
+        <v>12.78539999999999</v>
       </c>
     </row>
     <row r="25">
